--- a/biology/Médecine/Bert_Hellinger/Bert_Hellinger.xlsx
+++ b/biology/Médecine/Bert_Hellinger/Bert_Hellinger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anton Hellinger, dit Bert Hellinger, né le 15 décembre 1925 à Leimen et mort le 19 septembre 2019[1] à Bischofswiesen, est un psychothérapeute allemand spécialisé dans les relations familiales et auteur d'ouvrages de psychothérapie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anton Hellinger, dit Bert Hellinger, né le 15 décembre 1925 à Leimen et mort le 19 septembre 2019 à Bischofswiesen, est un psychothérapeute allemand spécialisé dans les relations familiales et auteur d'ouvrages de psychothérapie.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bert Hellinger passe sa jeunesse à Cologne et entre dans la congrégation des missionnaires de Mariannhill, où il est ordonné prêtre, et prend le nom de religion de Suitbert, après avoir fait des études de philosophie, de théologie et de pédagogie. Au bout de seize ans passés auprès des Zoulous d'Afrique du Sud comme « missionnaire-enseignant »[2], il abandonne la prêtrise en 1971, se fait connaître dès lors sous le nom de Bert (diminutif de Suitbert) Hellinger, se marie et développe dans les années 1990 sa propre méthode de thérapie familiale, la constellation familiale.
-Il s'intéresse aussi à la Gestalt, à l'analyse transactionnelle selon les travaux d'Éric Berne[3].
-Ses méthodes ont fait l'objet de critiques[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bert Hellinger passe sa jeunesse à Cologne et entre dans la congrégation des missionnaires de Mariannhill, où il est ordonné prêtre, et prend le nom de religion de Suitbert, après avoir fait des études de philosophie, de théologie et de pédagogie. Au bout de seize ans passés auprès des Zoulous d'Afrique du Sud comme « missionnaire-enseignant », il abandonne la prêtrise en 1971, se fait connaître dès lors sous le nom de Bert (diminutif de Suitbert) Hellinger, se marie et développe dans les années 1990 sa propre méthode de thérapie familiale, la constellation familiale.
+Il s'intéresse aussi à la Gestalt, à l'analyse transactionnelle selon les travaux d'Éric Berne.
+Ses méthodes ont fait l'objet de critiques,.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bert Hellinger &amp; Gabriele Ten Hövel,Constellations familiales : comprendre les mécanismes des pathologies familiales, trad. par Geneviève Vanneufville, Françoise Saintonge &amp; Geneviève Roulier-Pitthan, Barret-sur-Méouge, Éd. Le Souffle d'Or, 2001  (ISBN 2-84058-198-1)
 La Maturité dans les relations humaines : liberté, sentiment d'appartenance et liens affectifs, trad. par Violette Kubler à partir d'une première trad. de Ingrid Racz, Barret-sur-Méouge, Éd. Le Souffle d'Or, 2002  (ISBN 2-84058-206-6)
